--- a/CI_CD_Notes.xlsx
+++ b/CI_CD_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\CI_CD-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7199EAD6-2BB9-4FC5-8228-C9911B2ED941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F618DD0-8B11-4ED1-98B2-A7CA0AF59A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="777" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -10304,9 +10304,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -10316,6 +10313,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11215,7 +11215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E436F6-82DF-4B70-BF8E-A8A5298D0287}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -12443,7 +12443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA4D47-B8A7-4140-842E-A7C98520423F}">
   <dimension ref="A1:K404"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -12573,7 +12573,7 @@
       <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="86" t="s">
         <v>218</v>
       </c>
     </row>
@@ -12581,79 +12581,79 @@
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="86"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="86"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="77"/>
+      <c r="C27" s="86"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="86"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="77"/>
+      <c r="C29" s="86"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="77"/>
+      <c r="C30" s="86"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="77"/>
+      <c r="C31" s="86"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="86"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="77"/>
+      <c r="C33" s="86"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="77"/>
+      <c r="C34" s="86"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="77"/>
+      <c r="C35" s="86"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="77"/>
+      <c r="C36" s="86"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="77"/>
+      <c r="C37" s="86"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -14558,7 +14558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9FA1AB-5BF8-42A5-9366-6AF845A09408}">
   <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView topLeftCell="I49" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
@@ -15666,23 +15666,23 @@
       <c r="L63" s="48"/>
       <c r="M63" s="48"/>
       <c r="N63" s="51"/>
-      <c r="P63" s="78" t="s">
+      <c r="P63" s="77" t="s">
         <v>480</v>
       </c>
-      <c r="Q63" s="79"/>
-      <c r="R63" s="79"/>
-      <c r="S63" s="79"/>
-      <c r="T63" s="79"/>
-      <c r="U63" s="80"/>
-      <c r="W63" s="78" t="s">
+      <c r="Q63" s="78"/>
+      <c r="R63" s="78"/>
+      <c r="S63" s="78"/>
+      <c r="T63" s="78"/>
+      <c r="U63" s="79"/>
+      <c r="W63" s="77" t="s">
         <v>481</v>
       </c>
-      <c r="X63" s="79"/>
-      <c r="Y63" s="79"/>
-      <c r="Z63" s="79"/>
-      <c r="AA63" s="79"/>
-      <c r="AB63" s="79"/>
-      <c r="AC63" s="80"/>
+      <c r="X63" s="78"/>
+      <c r="Y63" s="78"/>
+      <c r="Z63" s="78"/>
+      <c r="AA63" s="78"/>
+      <c r="AB63" s="78"/>
+      <c r="AC63" s="79"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="50"/>
@@ -15699,23 +15699,23 @@
       <c r="L64" s="48"/>
       <c r="M64" s="48"/>
       <c r="N64" s="51"/>
-      <c r="P64" s="81" t="s">
+      <c r="P64" s="80" t="s">
         <v>482</v>
       </c>
-      <c r="Q64" s="82"/>
-      <c r="R64" s="82"/>
-      <c r="S64" s="82"/>
-      <c r="T64" s="82"/>
-      <c r="U64" s="83"/>
-      <c r="W64" s="81" t="s">
+      <c r="Q64" s="81"/>
+      <c r="R64" s="81"/>
+      <c r="S64" s="81"/>
+      <c r="T64" s="81"/>
+      <c r="U64" s="82"/>
+      <c r="W64" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="X64" s="82"/>
-      <c r="Y64" s="82"/>
-      <c r="Z64" s="82"/>
-      <c r="AA64" s="82"/>
-      <c r="AB64" s="82"/>
-      <c r="AC64" s="83"/>
+      <c r="X64" s="81"/>
+      <c r="Y64" s="81"/>
+      <c r="Z64" s="81"/>
+      <c r="AA64" s="81"/>
+      <c r="AB64" s="81"/>
+      <c r="AC64" s="82"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
@@ -15734,23 +15734,23 @@
       <c r="L65" s="48"/>
       <c r="M65" s="48"/>
       <c r="N65" s="51"/>
-      <c r="P65" s="81" t="s">
+      <c r="P65" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="Q65" s="82"/>
-      <c r="R65" s="82"/>
-      <c r="S65" s="82"/>
-      <c r="T65" s="82"/>
-      <c r="U65" s="83"/>
-      <c r="W65" s="81" t="s">
+      <c r="Q65" s="81"/>
+      <c r="R65" s="81"/>
+      <c r="S65" s="81"/>
+      <c r="T65" s="81"/>
+      <c r="U65" s="82"/>
+      <c r="W65" s="80" t="s">
         <v>483</v>
       </c>
-      <c r="X65" s="82"/>
-      <c r="Y65" s="82"/>
-      <c r="Z65" s="82"/>
-      <c r="AA65" s="82"/>
-      <c r="AB65" s="82"/>
-      <c r="AC65" s="83"/>
+      <c r="X65" s="81"/>
+      <c r="Y65" s="81"/>
+      <c r="Z65" s="81"/>
+      <c r="AA65" s="81"/>
+      <c r="AB65" s="81"/>
+      <c r="AC65" s="82"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
@@ -15769,23 +15769,23 @@
       <c r="L66" s="48"/>
       <c r="M66" s="48"/>
       <c r="N66" s="51"/>
-      <c r="P66" s="81" t="s">
+      <c r="P66" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="Q66" s="82"/>
-      <c r="R66" s="82"/>
-      <c r="S66" s="82"/>
-      <c r="T66" s="82"/>
-      <c r="U66" s="83"/>
-      <c r="W66" s="81" t="s">
+      <c r="Q66" s="81"/>
+      <c r="R66" s="81"/>
+      <c r="S66" s="81"/>
+      <c r="T66" s="81"/>
+      <c r="U66" s="82"/>
+      <c r="W66" s="80" t="s">
         <v>485</v>
       </c>
-      <c r="X66" s="82"/>
-      <c r="Y66" s="82"/>
-      <c r="Z66" s="82"/>
-      <c r="AA66" s="82"/>
-      <c r="AB66" s="82"/>
-      <c r="AC66" s="83"/>
+      <c r="X66" s="81"/>
+      <c r="Y66" s="81"/>
+      <c r="Z66" s="81"/>
+      <c r="AA66" s="81"/>
+      <c r="AB66" s="81"/>
+      <c r="AC66" s="82"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
@@ -15804,23 +15804,23 @@
       <c r="L67" s="48"/>
       <c r="M67" s="48"/>
       <c r="N67" s="51"/>
-      <c r="P67" s="81" t="s">
+      <c r="P67" s="80" t="s">
         <v>486</v>
       </c>
-      <c r="Q67" s="82"/>
-      <c r="R67" s="82"/>
-      <c r="S67" s="82"/>
-      <c r="T67" s="82"/>
-      <c r="U67" s="83"/>
-      <c r="W67" s="81" t="s">
+      <c r="Q67" s="81"/>
+      <c r="R67" s="81"/>
+      <c r="S67" s="81"/>
+      <c r="T67" s="81"/>
+      <c r="U67" s="82"/>
+      <c r="W67" s="80" t="s">
         <v>487</v>
       </c>
-      <c r="X67" s="82"/>
-      <c r="Y67" s="82"/>
-      <c r="Z67" s="82"/>
-      <c r="AA67" s="82"/>
-      <c r="AB67" s="82"/>
-      <c r="AC67" s="83"/>
+      <c r="X67" s="81"/>
+      <c r="Y67" s="81"/>
+      <c r="Z67" s="81"/>
+      <c r="AA67" s="81"/>
+      <c r="AB67" s="81"/>
+      <c r="AC67" s="82"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="49" t="s">
@@ -15839,21 +15839,21 @@
       <c r="L68" s="48"/>
       <c r="M68" s="48"/>
       <c r="N68" s="51"/>
-      <c r="P68" s="81" t="s">
+      <c r="P68" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="Q68" s="82"/>
-      <c r="R68" s="82"/>
-      <c r="S68" s="82"/>
-      <c r="T68" s="82"/>
-      <c r="U68" s="83"/>
-      <c r="W68" s="81"/>
-      <c r="X68" s="82"/>
-      <c r="Y68" s="82"/>
-      <c r="Z68" s="82"/>
-      <c r="AA68" s="82"/>
-      <c r="AB68" s="82"/>
-      <c r="AC68" s="83"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="81"/>
+      <c r="S68" s="81"/>
+      <c r="T68" s="81"/>
+      <c r="U68" s="82"/>
+      <c r="W68" s="80"/>
+      <c r="X68" s="81"/>
+      <c r="Y68" s="81"/>
+      <c r="Z68" s="81"/>
+      <c r="AA68" s="81"/>
+      <c r="AB68" s="81"/>
+      <c r="AC68" s="82"/>
     </row>
     <row r="69" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="49" t="s">
@@ -15872,23 +15872,23 @@
       <c r="L69" s="48"/>
       <c r="M69" s="48"/>
       <c r="N69" s="51"/>
-      <c r="P69" s="84" t="s">
+      <c r="P69" s="83" t="s">
         <v>489</v>
       </c>
-      <c r="Q69" s="85"/>
-      <c r="R69" s="85"/>
-      <c r="S69" s="85"/>
-      <c r="T69" s="85"/>
-      <c r="U69" s="86"/>
-      <c r="W69" s="81" t="s">
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="S69" s="84"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="85"/>
+      <c r="W69" s="80" t="s">
         <v>490</v>
       </c>
-      <c r="X69" s="82"/>
-      <c r="Y69" s="82"/>
-      <c r="Z69" s="82"/>
-      <c r="AA69" s="82"/>
-      <c r="AB69" s="82"/>
-      <c r="AC69" s="83"/>
+      <c r="X69" s="81"/>
+      <c r="Y69" s="81"/>
+      <c r="Z69" s="81"/>
+      <c r="AA69" s="81"/>
+      <c r="AB69" s="81"/>
+      <c r="AC69" s="82"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
@@ -15907,15 +15907,15 @@
       <c r="L70" s="48"/>
       <c r="M70" s="48"/>
       <c r="N70" s="51"/>
-      <c r="W70" s="81" t="s">
+      <c r="W70" s="80" t="s">
         <v>491</v>
       </c>
-      <c r="X70" s="82"/>
-      <c r="Y70" s="82"/>
-      <c r="Z70" s="82"/>
-      <c r="AA70" s="82"/>
-      <c r="AB70" s="82"/>
-      <c r="AC70" s="83"/>
+      <c r="X70" s="81"/>
+      <c r="Y70" s="81"/>
+      <c r="Z70" s="81"/>
+      <c r="AA70" s="81"/>
+      <c r="AB70" s="81"/>
+      <c r="AC70" s="82"/>
     </row>
     <row r="71" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="49" t="s">
@@ -15934,15 +15934,15 @@
       <c r="L71" s="48"/>
       <c r="M71" s="48"/>
       <c r="N71" s="51"/>
-      <c r="W71" s="84" t="s">
+      <c r="W71" s="83" t="s">
         <v>492</v>
       </c>
-      <c r="X71" s="85"/>
-      <c r="Y71" s="85"/>
-      <c r="Z71" s="85"/>
-      <c r="AA71" s="85"/>
-      <c r="AB71" s="85"/>
-      <c r="AC71" s="86"/>
+      <c r="X71" s="84"/>
+      <c r="Y71" s="84"/>
+      <c r="Z71" s="84"/>
+      <c r="AA71" s="84"/>
+      <c r="AB71" s="84"/>
+      <c r="AC71" s="85"/>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
@@ -16006,7 +16006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43318A8-8A91-4F43-9205-BA8721316611}">
   <dimension ref="A2:O69"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -16616,7 +16616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1DA6F7-F2AD-4E7A-A40A-AA3A603BD1B1}">
   <dimension ref="A1:Z212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+    <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
